--- a/data/formatted/basicdata200001.xlsx
+++ b/data/formatted/basicdata200001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5EB021-7F99-437B-9869-88EE0BBC4343}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8601F3A4-60D9-4381-B5F8-4A18C05B9980}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="2420" windowWidth="11520" windowHeight="6000" xr2:uid="{49A08C1E-3DBF-40A9-BCCB-7DE402802890}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{49A08C1E-3DBF-40A9-BCCB-7DE402802890}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/formatted/basicdata200001.xlsx
+++ b/data/formatted/basicdata200001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8601F3A4-60D9-4381-B5F8-4A18C05B9980}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F89B1B5-533D-475E-9FC0-120D72A5C4D2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{49A08C1E-3DBF-40A9-BCCB-7DE402802890}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{49A08C1E-3DBF-40A9-BCCB-7DE402802890}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/formatted/basicdata200001.xlsx
+++ b/data/formatted/basicdata200001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F89B1B5-533D-475E-9FC0-120D72A5C4D2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6433BD85-1D83-40F3-B46F-54B684CC6D72}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{49A08C1E-3DBF-40A9-BCCB-7DE402802890}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{49A08C1E-3DBF-40A9-BCCB-7DE402802890}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,199 +114,199 @@
     <t>PersonalFouls</t>
   </si>
   <si>
-    <t>Alabama State NCAA</t>
-  </si>
-  <si>
-    <t>Arizona NCAA</t>
-  </si>
-  <si>
-    <t>Arkansas NCAA</t>
-  </si>
-  <si>
-    <t>Boston College NCAA</t>
-  </si>
-  <si>
-    <t>Brigham Young NCAA</t>
-  </si>
-  <si>
-    <t>Butler NCAA</t>
-  </si>
-  <si>
-    <t>Cal State Northridge NCAA</t>
-  </si>
-  <si>
-    <t>University of California NCAA</t>
-  </si>
-  <si>
-    <t>Charlotte NCAA</t>
-  </si>
-  <si>
-    <t>Cincinnati NCAA</t>
-  </si>
-  <si>
-    <t>Creighton NCAA</t>
-  </si>
-  <si>
-    <t>Duke NCAA</t>
-  </si>
-  <si>
-    <t>Eastern Illinois NCAA</t>
-  </si>
-  <si>
-    <t>Florida NCAA</t>
-  </si>
-  <si>
-    <t>Fresno State NCAA</t>
-  </si>
-  <si>
-    <t>George Mason NCAA</t>
-  </si>
-  <si>
-    <t>Georgetown NCAA</t>
-  </si>
-  <si>
-    <t>Georgia State NCAA</t>
-  </si>
-  <si>
-    <t>Georgia Tech NCAA</t>
-  </si>
-  <si>
-    <t>Georgia NCAA</t>
-  </si>
-  <si>
-    <t>Gonzaga NCAA</t>
-  </si>
-  <si>
-    <t>Hampton NCAA</t>
-  </si>
-  <si>
-    <t>Hawaii NCAA</t>
-  </si>
-  <si>
-    <t>Hofstra NCAA</t>
-  </si>
-  <si>
-    <t>Holy Cross NCAA</t>
-  </si>
-  <si>
-    <t>Illinois NCAA</t>
-  </si>
-  <si>
-    <t>Indiana State NCAA</t>
-  </si>
-  <si>
-    <t>Indiana NCAA</t>
-  </si>
-  <si>
-    <t>Iona NCAA</t>
-  </si>
-  <si>
-    <t>Iowa State NCAA</t>
-  </si>
-  <si>
-    <t>Iowa NCAA</t>
-  </si>
-  <si>
-    <t>Kansas NCAA</t>
-  </si>
-  <si>
-    <t>Kent State NCAA</t>
-  </si>
-  <si>
-    <t>Kentucky NCAA</t>
-  </si>
-  <si>
-    <t>Maryland NCAA</t>
-  </si>
-  <si>
-    <t>Michigan State NCAA</t>
-  </si>
-  <si>
-    <t>Mississippi NCAA</t>
-  </si>
-  <si>
-    <t>Missouri NCAA</t>
-  </si>
-  <si>
-    <t>Monmouth NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina-Greensboro NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina NCAA</t>
-  </si>
-  <si>
-    <t>Northwestern State NCAA</t>
-  </si>
-  <si>
-    <t>Notre Dame NCAA</t>
-  </si>
-  <si>
-    <t>Ohio State NCAA</t>
-  </si>
-  <si>
-    <t>Oklahoma State NCAA</t>
-  </si>
-  <si>
-    <t>Oklahoma NCAA</t>
-  </si>
-  <si>
-    <t>Penn State NCAA</t>
-  </si>
-  <si>
-    <t>Princeton NCAA</t>
-  </si>
-  <si>
-    <t>Providence NCAA</t>
-  </si>
-  <si>
-    <t>Saint Joseph's NCAA</t>
-  </si>
-  <si>
-    <t>Southern California NCAA</t>
-  </si>
-  <si>
-    <t>Southern Utah NCAA</t>
-  </si>
-  <si>
-    <t>Stanford NCAA</t>
-  </si>
-  <si>
-    <t>Syracuse NCAA</t>
-  </si>
-  <si>
-    <t>Temple NCAA</t>
-  </si>
-  <si>
-    <t>Tennessee NCAA</t>
-  </si>
-  <si>
-    <t>Texas NCAA</t>
-  </si>
-  <si>
-    <t>UCLA NCAA</t>
-  </si>
-  <si>
-    <t>Utah State NCAA</t>
-  </si>
-  <si>
-    <t>Virginia NCAA</t>
-  </si>
-  <si>
-    <t>Wake Forest NCAA</t>
-  </si>
-  <si>
-    <t>Western Kentucky NCAA</t>
-  </si>
-  <si>
-    <t>Winthrop NCAA</t>
-  </si>
-  <si>
-    <t>Wisconsin NCAA</t>
-  </si>
-  <si>
-    <t>Xavier NCAA</t>
+    <t>Alabama State</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Boston College</t>
+  </si>
+  <si>
+    <t>Brigham Young</t>
+  </si>
+  <si>
+    <t>Butler</t>
+  </si>
+  <si>
+    <t>Cal State Northridge</t>
+  </si>
+  <si>
+    <t>University of California</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Creighton</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Eastern Illinois</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Fresno State</t>
+  </si>
+  <si>
+    <t>George Mason</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
+  </si>
+  <si>
+    <t>Georgia State</t>
+  </si>
+  <si>
+    <t>Georgia Tech</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Gonzaga</t>
+  </si>
+  <si>
+    <t>Hampton</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Hofstra</t>
+  </si>
+  <si>
+    <t>Holy Cross</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana State</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Iona</t>
+  </si>
+  <si>
+    <t>Iowa State</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kent State</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Michigan State</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Monmouth</t>
+  </si>
+  <si>
+    <t>North Carolina-Greensboro</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Northwestern State</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
+    <t>Oklahoma State</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Penn State</t>
+  </si>
+  <si>
+    <t>Princeton</t>
+  </si>
+  <si>
+    <t>Providence</t>
+  </si>
+  <si>
+    <t>Saint Joseph's</t>
+  </si>
+  <si>
+    <t>Southern California</t>
+  </si>
+  <si>
+    <t>Southern Utah</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Utah State</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Wake Forest</t>
+  </si>
+  <si>
+    <t>Western Kentucky</t>
+  </si>
+  <si>
+    <t>Winthrop</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Xavier</t>
   </si>
 </sst>
 </file>
@@ -661,10 +661,13 @@
   <dimension ref="A1:AA66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AA66"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="35.90625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
